--- a/medicine/Mort/Cimetière_du_Centre_de_Gagny/Cimetière_du_Centre_de_Gagny.xlsx
+++ b/medicine/Mort/Cimetière_du_Centre_de_Gagny/Cimetière_du_Centre_de_Gagny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Gagny</t>
+          <t>Cimetière_du_Centre_de_Gagny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière du Centre de Gagny est un des deux lieux de sépultures de la commune de Gagny en Seine-Saint-Denis, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Gagny</t>
+          <t>Cimetière_du_Centre_de_Gagny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été agrandi après la seconde guerre mondiale, ce qui a permis la construction d'un carré militaire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été agrandi après la seconde guerre mondiale, ce qui a permis la construction d'un carré militaire.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Gagny</t>
+          <t>Cimetière_du_Centre_de_Gagny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé au no 115, rue du Général-Leclerc[2].
-On y trouve un Monument aux morts de la Seconde Guerre mondiale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé au no 115, rue du Général-Leclerc.
+On y trouve un Monument aux morts de la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Centre_de_Gagny</t>
+          <t>Cimetière_du_Centre_de_Gagny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Général Georges Humann (1833-1908)[4] et son fils Paul[5].
-Pauline Gacogne, maîtresse de Frédéric Gérard, gérant du cabaret Au Lapin Agile, avec la mère de Frédéric[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Général Georges Humann (1833-1908) et son fils Paul.
+Pauline Gacogne, maîtresse de Frédéric Gérard, gérant du cabaret Au Lapin Agile, avec la mère de Frédéric,.
 Daniel Roger du Nord, son fils Édouard Roger du Nord et leur famille, Henriette Guillemont, Charles Roger et Marie Huddelston née Roger.</t>
         </is>
       </c>
